--- a/biology/Zoologie/Acanthobrama_centisquama/Acanthobrama_centisquama.xlsx
+++ b/biology/Zoologie/Acanthobrama_centisquama/Acanthobrama_centisquama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthobrama centisquama est une espèce de poissons de la famille des Cyprinidés.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des lacs al-Gab en Syrie et Amik en Turquie. Ces deux lacs ont été asséchés au XXe siècle. Acanthobrama centisquama pourrait néanmoins avoir survéu dans le lac Gölbasi, qui est une relique de 12 km2 du lac Amik[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des lacs al-Gab en Syrie et Amik en Turquie. Ces deux lacs ont été asséchés au XXe siècle. Acanthobrama centisquama pourrait néanmoins avoir survéu dans le lac Gölbasi, qui est une relique de 12 km2 du lac Amik.
 </t>
         </is>
       </c>
